--- a/reports/product_items/templates/xlsx/template.xlsx
+++ b/reports/product_items/templates/xlsx/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfranco00/Sites/adobe-product-report/product_items/reports/product_items/templates/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mruiz00\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1177EF-030F-E442-BE6C-ABBD1195819E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5A139C-A063-46DA-9D92-C61A1A21898E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Item ID</t>
-  </si>
-  <si>
     <t>Item Name</t>
   </si>
   <si>
@@ -56,6 +53,9 @@
   </si>
   <si>
     <t>Item Modification Date</t>
+  </si>
+  <si>
+    <t>DevItem ID</t>
   </si>
 </sst>
 </file>
@@ -446,59 +446,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CD4" sqref="CD4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="45.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="29.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="24.1640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="3"/>
+    <col min="1" max="1" width="18.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="L1" s="5"/>
     </row>
